--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Alb-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Alb-Lrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,7 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>MuSCs</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Alb</t>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,10 +531,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09349499999999999</v>
+        <v>0.03141166666666666</v>
       </c>
       <c r="H2">
-        <v>0.280485</v>
+        <v>0.094235</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,84 +555,22 @@
         <v>0.005891</v>
       </c>
       <c r="O2">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.000183593015</v>
+        <v>6.168204277777778E-05</v>
       </c>
       <c r="R2">
-        <v>0.001652337135</v>
+        <v>0.000555138385</v>
       </c>
       <c r="S2">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.06236436201183557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G3">
-        <v>0.09349499999999999</v>
-      </c>
-      <c r="H3">
-        <v>0.280485</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M3">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N3">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O3">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P3">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q3">
-        <v>0.00276028405</v>
-      </c>
-      <c r="R3">
-        <v>0.02484255645</v>
-      </c>
-      <c r="S3">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="T3">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
